--- a/src/main/resources/static/plantilla_trayectos2.xlsx
+++ b/src/main/resources/static/plantilla_trayectos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a6a4856377d5940/Escritorio/DEVELOPMENT/vehiculos-api/vehiculos-api/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7862803B-5046-4FBE-9DB3-CF5E510BB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{7862803B-5046-4FBE-9DB3-CF5E510BB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73B20ECF-50CC-4C99-90B1-1B8EB98C2A6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3295AC4-4DDF-47E8-A77D-16A8A3821F80}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>longitud</t>
   </si>
   <si>
-    <t>RUTA-CARGUE-01</t>
-  </si>
-  <si>
     <t>Plaza de Bolivar, Ibague, Tolima</t>
   </si>
   <si>
@@ -70,20 +67,23 @@
     <t>Terminal de Transporte, Ibague, Tolima</t>
   </si>
   <si>
-    <t>RUTA-CARGUE-02</t>
-  </si>
-  <si>
     <t>Centro Comercial, Ibague, Tolima</t>
   </si>
   <si>
     <t>Estadio, Ibague, Tolima</t>
+  </si>
+  <si>
+    <t>RUTA-CARGUE-02-10</t>
+  </si>
+  <si>
+    <t>RUTA-CARGUE-02-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +160,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,15 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E699B5CF-9B45-46E7-9BA9-5C7CF40BAC6C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,64 +511,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>44389</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-752322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
-        <v>44142</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-751942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -556,18 +568,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -575,26 +587,34 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>